--- a/biology/Botanique/Brachyloma_saxicola/Brachyloma_saxicola.xlsx
+++ b/biology/Botanique/Brachyloma_saxicola/Brachyloma_saxicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachyloma saxicola est une espèce de plante à fleurs de la famille des Ericaceae[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachyloma saxicola est une espèce de plante à fleurs de la famille des Ericaceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Brachyloma saxicola a été initialement décrite en 1994 par John T. Hunter (d)[4] dans une publication rédigée en collaboration avec John Beaumont Williams (d)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Brachyloma saxicola a été initialement décrite en 1994 par John T. Hunter (d) dans une publication rédigée en collaboration avec John Beaumont Williams (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachyloma saxicola est un petit arbuste buissonnant et érigé mesurant jusqu'à 4 m de haut[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachyloma saxicola est un petit arbuste buissonnant et érigé mesurant jusqu'à 4 m de haut.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachyloma saxicola est originaire de l'État australien de Nouvelle-Galles du Sud[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachyloma saxicola est originaire de l'État australien de Nouvelle-Galles du Sud.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, du latin saxum, « pierre, rocaille » et -cola, « habitant » et ce en référence à sa présence uniquement parmi les roches granitiques[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, du latin saxum, « pierre, rocaille » et -cola, « habitant » et ce en référence à sa présence uniquement parmi les roches granitiques.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) J. T. Hunter et J. B. Williams, « A new species of Brachyloma and three new subspecies of B. daphnoides (Epacridaceae) from south-eastern Australia », Telopea, National Herbarium of New South Wales (d),‎ 18 novembre 1994, p. 1–7 (ISSN 0312-9764 et 2200-4025, DOI 10.7751/TELOPEA19943006, lire en ligne)</t>
         </is>
